--- a/data/trans_orig/P07B_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10175</v>
+        <v>9469</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26035</v>
+        <v>25852</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03249079830696174</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02040207577980307</v>
+        <v>0.01898492808874582</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0522025952226853</v>
+        <v>0.05183399657028683</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -762,19 +762,19 @@
         <v>17960</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11970</v>
+        <v>11771</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27897</v>
+        <v>25468</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02880218018571532</v>
+        <v>0.02880218018571533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01919607879930666</v>
+        <v>0.0188756867850005</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04473723692686443</v>
+        <v>0.04084107251636038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -783,19 +783,19 @@
         <v>34165</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24752</v>
+        <v>25304</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46058</v>
+        <v>45627</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03044133800920792</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02205425512369574</v>
+        <v>0.02254580228214088</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04103783984147255</v>
+        <v>0.04065431016214982</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>47523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35531</v>
+        <v>36043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60650</v>
+        <v>62464</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09528614236598726</v>
+        <v>0.09528614236598729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07124092246312409</v>
+        <v>0.07226924741897979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.121607476479218</v>
+        <v>0.1252434215813701</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -833,19 +833,19 @@
         <v>83444</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70416</v>
+        <v>70815</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98966</v>
+        <v>98258</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1338139217698149</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1129221881194514</v>
+        <v>0.113562454506013</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1587053839586391</v>
+        <v>0.1575700830575041</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -854,19 +854,19 @@
         <v>130967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113023</v>
+        <v>110138</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>151627</v>
+        <v>148961</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1166928458124477</v>
+        <v>0.1166928458124478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1007045570814914</v>
+        <v>0.09813421338113619</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1351010935407626</v>
+        <v>0.132725570284073</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>227330</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>202319</v>
+        <v>202908</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>250695</v>
+        <v>250615</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.455808738991875</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4056608413339822</v>
+        <v>0.4068414669380525</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5026585227693656</v>
+        <v>0.5024977121003146</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>429</v>
@@ -904,19 +904,19 @@
         <v>305027</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>282006</v>
+        <v>281718</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>327512</v>
+        <v>327796</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4891546033408201</v>
+        <v>0.4891546033408199</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4522373607729058</v>
+        <v>0.451775694754018</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5252123013063984</v>
+        <v>0.5256677929703882</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>651</v>
@@ -925,19 +925,19 @@
         <v>532357</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>499970</v>
+        <v>499964</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>567071</v>
+        <v>567434</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.474336280426377</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4454792595715181</v>
+        <v>0.4454741059516674</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5052668450155505</v>
+        <v>0.505590384524932</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>135158</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>114158</v>
+        <v>114334</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158309</v>
+        <v>157620</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2709987761977686</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2288928985704187</v>
+        <v>0.2292457216147764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3174176368979519</v>
+        <v>0.3160368345663785</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>211</v>
@@ -975,19 +975,19 @@
         <v>152206</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>133165</v>
+        <v>133072</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>172963</v>
+        <v>172371</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2440846871975493</v>
+        <v>0.2440846871975494</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2135492173606975</v>
+        <v>0.2134005100987444</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2773705789011759</v>
+        <v>0.2764210972594365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>330</v>
@@ -996,19 +996,19 @@
         <v>287364</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>260875</v>
+        <v>257586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>317894</v>
+        <v>315256</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2560448408639794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2324427653776282</v>
+        <v>0.2295118874820236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2832468871236904</v>
+        <v>0.2808967386477816</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>72524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53380</v>
+        <v>53519</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96786</v>
+        <v>98155</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1454155441374074</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1070290539732629</v>
+        <v>0.1073084567463599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.194060840366269</v>
+        <v>0.1968055201679001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -1046,19 +1046,19 @@
         <v>64942</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49497</v>
+        <v>49459</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82564</v>
+        <v>83097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1041446075061002</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07937545649106581</v>
+        <v>0.07931400779266343</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1324036904042679</v>
+        <v>0.133257183261756</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>111</v>
@@ -1067,19 +1067,19 @@
         <v>137467</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>113058</v>
+        <v>112432</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>169035</v>
+        <v>169936</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1224846948879881</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1007363630454546</v>
+        <v>0.1001783913393848</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1506117750724927</v>
+        <v>0.1514144998406119</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>6753</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3124</v>
+        <v>2993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12703</v>
+        <v>13027</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007032939449966868</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003254019873045174</v>
+        <v>0.00311750102339927</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01323041295334787</v>
+        <v>0.01356806439057826</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1192,19 +1192,19 @@
         <v>11829</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7313</v>
+        <v>7367</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19857</v>
+        <v>20784</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01060126923598027</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006553931484569518</v>
+        <v>0.006602246067448366</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0177951418141604</v>
+        <v>0.01862607593864513</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -1213,19 +1213,19 @@
         <v>18582</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11871</v>
+        <v>12321</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26222</v>
+        <v>28430</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.008950928470905398</v>
+        <v>0.008950928470905395</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005718323242168625</v>
+        <v>0.005934954845661034</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01263121798148152</v>
+        <v>0.01369462256704738</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>53760</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41508</v>
+        <v>39999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72586</v>
+        <v>71362</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05599242991217982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04323081900913155</v>
+        <v>0.04165987020874912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07559985973056288</v>
+        <v>0.07432529188463079</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -1263,19 +1263,19 @@
         <v>92706</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78961</v>
+        <v>78542</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109094</v>
+        <v>108162</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0830809596256826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07076318507933499</v>
+        <v>0.07038808702288291</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09776814118703576</v>
+        <v>0.09693254585057173</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>208</v>
@@ -1284,19 +1284,19 @@
         <v>146466</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>125030</v>
+        <v>125439</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>169710</v>
+        <v>168091</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07055260391501798</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06022702246362498</v>
+        <v>0.06042373394512244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08174934624713506</v>
+        <v>0.08096920675186757</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>390633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>355658</v>
+        <v>357135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>425254</v>
+        <v>425899</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4068516689159598</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3704240515195387</v>
+        <v>0.3719628406696066</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.442909265578503</v>
+        <v>0.443581022590668</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>772</v>
@@ -1334,19 +1334,19 @@
         <v>515271</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>487446</v>
+        <v>486926</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>547333</v>
+        <v>547984</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4617746127814621</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4368385814384912</v>
+        <v>0.4363730293775658</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4905085466334815</v>
+        <v>0.4910916911219036</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1193</v>
@@ -1355,19 +1355,19 @@
         <v>905904</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>866695</v>
+        <v>861209</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>952090</v>
+        <v>949381</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4363729322657092</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4174859274235948</v>
+        <v>0.4148434356360127</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4586204458828224</v>
+        <v>0.4573158188669777</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>373893</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>338148</v>
+        <v>341351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>410889</v>
+        <v>409306</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3894159204409711</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3521871795366033</v>
+        <v>0.3555228119952668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4279488201550866</v>
+        <v>0.4262996257586461</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>536</v>
@@ -1405,19 +1405,19 @@
         <v>386475</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>355073</v>
+        <v>358907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>414739</v>
+        <v>418522</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3463507134420459</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3182084787364795</v>
+        <v>0.3216451166677703</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3716805190581947</v>
+        <v>0.3750706591935016</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>867</v>
@@ -1426,19 +1426,19 @@
         <v>760368</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>717807</v>
+        <v>719958</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>803128</v>
+        <v>803382</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3662682297392482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3457667087684879</v>
+        <v>0.3468029616989309</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.386865596524157</v>
+        <v>0.3869882798399641</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>135098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109293</v>
+        <v>108139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>167128</v>
+        <v>166910</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1407070412809225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1138305086418211</v>
+        <v>0.1126284823443527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1740664068613752</v>
+        <v>0.1738397858708532</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -1476,19 +1476,19 @@
         <v>109568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91105</v>
+        <v>92641</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131232</v>
+        <v>131593</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09819244491482892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08164647072159711</v>
+        <v>0.08302321506765856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.117607658283608</v>
+        <v>0.1179310428226457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>220</v>
@@ -1497,19 +1497,19 @@
         <v>244666</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>211425</v>
+        <v>209074</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283831</v>
+        <v>280524</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1178553056091193</v>
+        <v>0.1178553056091192</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1018433432175875</v>
+        <v>0.1007108624895014</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1367208554866258</v>
+        <v>0.135128165336361</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>4327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1755</v>
+        <v>1691</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8975</v>
+        <v>9039</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.004134736640728428</v>
+        <v>0.004134736640728429</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00167723823946283</v>
+        <v>0.00161599928836153</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00857596093903981</v>
+        <v>0.008637104239541844</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1622,19 +1622,19 @@
         <v>14330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9022</v>
+        <v>8760</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23311</v>
+        <v>23573</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01367852842306552</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00861149461592031</v>
+        <v>0.008361491520337543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02225066588093411</v>
+        <v>0.02250101704513857</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1643,19 +1643,19 @@
         <v>18657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12456</v>
+        <v>11460</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28447</v>
+        <v>27305</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00890928120794203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005947872507410578</v>
+        <v>0.00547229712335803</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01358429332650396</v>
+        <v>0.013038976026558</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>40475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28908</v>
+        <v>29345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56630</v>
+        <v>57723</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03867694767990858</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02762435097031443</v>
+        <v>0.02804182042217276</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05411480220581642</v>
+        <v>0.05515938314455416</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -1693,19 +1693,19 @@
         <v>72371</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60187</v>
+        <v>60390</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88442</v>
+        <v>89116</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06908008080691658</v>
+        <v>0.06908008080691659</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05744960883723715</v>
+        <v>0.05764332529092966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08442019836840081</v>
+        <v>0.08506344212838915</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>154</v>
@@ -1714,19 +1714,19 @@
         <v>112846</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>92493</v>
+        <v>95685</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>134555</v>
+        <v>134080</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.05388695198516604</v>
+        <v>0.05388695198516605</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04416793840995077</v>
+        <v>0.04569237511301933</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06425383576343967</v>
+        <v>0.06402700112385591</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>428945</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>397801</v>
+        <v>397912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>466844</v>
+        <v>463609</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4098939210199989</v>
+        <v>0.4098939210199988</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3801325409306355</v>
+        <v>0.380239176181342</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4461093748501062</v>
+        <v>0.4430176095520426</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>673</v>
@@ -1764,19 +1764,19 @@
         <v>438654</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>409492</v>
+        <v>411986</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>464944</v>
+        <v>465996</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4187060710289119</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.390869857886663</v>
+        <v>0.3932510662100492</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4438005827691548</v>
+        <v>0.4448042621822502</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1130</v>
@@ -1785,19 +1785,19 @@
         <v>867599</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>818818</v>
+        <v>821672</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>911366</v>
+        <v>913224</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4143024416489164</v>
+        <v>0.4143024416489165</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.391007835468991</v>
+        <v>0.3923709997773094</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4352023298406315</v>
+        <v>0.4360892483588378</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>405302</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>366346</v>
+        <v>369125</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>438037</v>
+        <v>438548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3873008604321498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3500749456116644</v>
+        <v>0.3527305178164801</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4185812822169155</v>
+        <v>0.4190697924835645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>554</v>
@@ -1835,19 +1835,19 @@
         <v>385113</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>357843</v>
+        <v>359858</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>411132</v>
+        <v>415090</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3675995241576772</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3415700133527368</v>
+        <v>0.3434936483848684</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3924353459733799</v>
+        <v>0.3962137012374725</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>938</v>
@@ -1856,19 +1856,19 @@
         <v>790415</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>742799</v>
+        <v>749100</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>833171</v>
+        <v>837783</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.377444724608837</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3547067996386083</v>
+        <v>0.3577157307238529</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3978618149683532</v>
+        <v>0.4000642787132959</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>167430</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>141509</v>
+        <v>139351</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>201527</v>
+        <v>198526</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1599935342272143</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1352237035074438</v>
+        <v>0.1331621624405319</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1925763562294177</v>
+        <v>0.1897089220363708</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>159</v>
@@ -1906,19 +1906,19 @@
         <v>137174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>117618</v>
+        <v>116031</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159864</v>
+        <v>159102</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1309357955834288</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1122689553471797</v>
+        <v>0.1107546198797201</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1525936393732179</v>
+        <v>0.1518664554924006</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>296</v>
@@ -1927,19 +1927,19 @@
         <v>304604</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>272657</v>
+        <v>271906</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>343364</v>
+        <v>339937</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1454566005491385</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1302012956114921</v>
+        <v>0.12984264202311</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1639657142091122</v>
+        <v>0.1623289886881215</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>8021</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2599</v>
+        <v>3254</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16463</v>
+        <v>17362</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00821916435604788</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002663486210907771</v>
+        <v>0.003334677669510775</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01686928684699073</v>
+        <v>0.01779020805704754</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2055,16 +2055,16 @@
         <v>2059</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8903</v>
+        <v>8690</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005227101806972567</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002263560963773397</v>
+        <v>0.002263517958972333</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009787140296590863</v>
+        <v>0.009552889672734502</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2073,19 +2073,19 @@
         <v>12776</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7400</v>
+        <v>7117</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22780</v>
+        <v>22773</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006775671215457588</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003924584397972726</v>
+        <v>0.003774307102314528</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01208081639093164</v>
+        <v>0.01207686083864781</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>37350</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25971</v>
+        <v>27049</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>53874</v>
+        <v>53103</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03827085866615107</v>
+        <v>0.03827085866615108</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02661169703879657</v>
+        <v>0.02771622356135008</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0552029054446945</v>
+        <v>0.05441234690288499</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -2123,19 +2123,19 @@
         <v>55757</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>45188</v>
+        <v>43817</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>70078</v>
+        <v>68952</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06129121226553762</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04967261640974825</v>
+        <v>0.04816556429382139</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07703305743884176</v>
+        <v>0.07579546824229326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>124</v>
@@ -2144,19 +2144,19 @@
         <v>93107</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>75882</v>
+        <v>76914</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>113298</v>
+        <v>112970</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0493768171712455</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04024185580960506</v>
+        <v>0.04078916126299874</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06008487050935409</v>
+        <v>0.0599109779848885</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>429583</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>397621</v>
+        <v>398562</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>466324</v>
+        <v>465896</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4401783545105563</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4074279302726069</v>
+        <v>0.408392198843554</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4778256259079605</v>
+        <v>0.4773875661314873</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>661</v>
@@ -2194,19 +2194,19 @@
         <v>412645</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>387341</v>
+        <v>387106</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>440140</v>
+        <v>444468</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4536007987524344</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4257853650718681</v>
+        <v>0.4255274328855637</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4838252430806698</v>
+        <v>0.4885831000020502</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1119</v>
@@ -2215,19 +2215,19 @@
         <v>842228</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>798441</v>
+        <v>801108</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>883644</v>
+        <v>880388</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4466538896557338</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.423432991631481</v>
+        <v>0.4248470154004229</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4686180314228445</v>
+        <v>0.4668912864746657</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>309791</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>278770</v>
+        <v>278000</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>341387</v>
+        <v>342891</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3174318566882634</v>
+        <v>0.3174318566882633</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2856462380067942</v>
+        <v>0.2848564349157674</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3498069352227038</v>
+        <v>0.3513480915059164</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>396</v>
@@ -2265,19 +2265,19 @@
         <v>292497</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>266912</v>
+        <v>267772</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>319318</v>
+        <v>318865</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3215277025869974</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2934042490776998</v>
+        <v>0.2943494912212435</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3510112450610511</v>
+        <v>0.3505129573786396</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>692</v>
@@ -2286,19 +2286,19 @@
         <v>602288</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>562205</v>
+        <v>563944</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>647818</v>
+        <v>640376</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.319407859984573</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2981511111367022</v>
+        <v>0.2990730985274527</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3435538709001962</v>
+        <v>0.3396071086829308</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>191184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>163673</v>
+        <v>163026</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>221753</v>
+        <v>222284</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1958997657789814</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1677097906897095</v>
+        <v>0.1670473657264291</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2272222660845988</v>
+        <v>0.2277662263756707</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>174</v>
@@ -2336,19 +2336,19 @@
         <v>144055</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>123673</v>
+        <v>121081</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>170196</v>
+        <v>166450</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1583531845880581</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1359478559721271</v>
+        <v>0.1330983985940193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1870887261842292</v>
+        <v>0.1829702889480657</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>321</v>
@@ -2357,19 +2357,19 @@
         <v>335240</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>297858</v>
+        <v>300494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>370522</v>
+        <v>376119</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1777857619729901</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.157961475898422</v>
+        <v>0.1593595433411171</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1964968466058823</v>
+        <v>0.1994652535508281</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>35305</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25050</v>
+        <v>24091</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48834</v>
+        <v>48443</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01014144684868347</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007195604295350382</v>
+        <v>0.006920009192579423</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01402765711429501</v>
+        <v>0.01391517725849463</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>75</v>
@@ -2482,19 +2482,19 @@
         <v>48875</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>38083</v>
+        <v>38740</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>62016</v>
+        <v>63189</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01322102681866962</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01030158557621307</v>
+        <v>0.01047947229242858</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01677578022601952</v>
+        <v>0.01709311416586667</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>114</v>
@@ -2503,19 +2503,19 @@
         <v>84180</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68373</v>
+        <v>67990</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>103046</v>
+        <v>101943</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01172746346744334</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00952523792541868</v>
+        <v>0.009471944673643819</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0143556314466545</v>
+        <v>0.01420195691924401</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>179108</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>153420</v>
+        <v>152971</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>210219</v>
+        <v>206885</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05144871337847823</v>
+        <v>0.05144871337847824</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04407001482453115</v>
+        <v>0.04394104965150559</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06038560535393118</v>
+        <v>0.05942785863795657</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>474</v>
@@ -2553,19 +2553,19 @@
         <v>304278</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>276876</v>
+        <v>277506</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>332565</v>
+        <v>332213</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08230889576201818</v>
+        <v>0.08230889576201816</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07489654505780043</v>
+        <v>0.07506700058908435</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0899607988150697</v>
+        <v>0.08986555145914575</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>666</v>
@@ -2574,19 +2574,19 @@
         <v>483385</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>444639</v>
+        <v>446199</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>521770</v>
+        <v>523358</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06734203733670457</v>
+        <v>0.06734203733670456</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06194415585317372</v>
+        <v>0.06216142031496855</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07268945818968069</v>
+        <v>0.07291079377845854</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>1476491</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1421246</v>
+        <v>1413485</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1543378</v>
+        <v>1536979</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4241225802130127</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.408253424206884</v>
+        <v>0.406023902510451</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4433359758222975</v>
+        <v>0.441497873134561</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2535</v>
@@ -2624,19 +2624,19 @@
         <v>1671597</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1618667</v>
+        <v>1616569</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1724672</v>
+        <v>1724128</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.4521763776678666</v>
+        <v>0.4521763776678665</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4378585341227669</v>
+        <v>0.4372911313200276</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4665335652334622</v>
+        <v>0.4663864892395356</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4093</v>
@@ -2645,19 +2645,19 @@
         <v>3148088</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3066410</v>
+        <v>3067928</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3233285</v>
+        <v>3233906</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4385705859204019</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4271917551570712</v>
+        <v>0.4274032159398198</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4504396612394421</v>
+        <v>0.4505261993643498</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>1224143</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1166620</v>
+        <v>1162088</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1282518</v>
+        <v>1292397</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.3516356114526458</v>
+        <v>0.3516356114526459</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3351119165533201</v>
+        <v>0.3338100611263639</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3684036840029625</v>
+        <v>0.3712414601501502</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1697</v>
@@ -2695,19 +2695,19 @@
         <v>1216291</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1162914</v>
+        <v>1165115</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1265469</v>
+        <v>1268566</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3290135578843001</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3145749146059262</v>
+        <v>0.3151702112025006</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3423166557157416</v>
+        <v>0.3431541793985488</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2827</v>
@@ -2716,19 +2716,19 @@
         <v>2440434</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2361910</v>
+        <v>2349050</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2521927</v>
+        <v>2520436</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3399850119359742</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3290456025861623</v>
+        <v>0.3272539814797577</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3513380174486126</v>
+        <v>0.3511303531371708</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>566237</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>509587</v>
+        <v>511235</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>616517</v>
+        <v>617661</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1626516481071797</v>
+        <v>0.1626516481071798</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1463789274858036</v>
+        <v>0.1468523116243186</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1770948360446729</v>
+        <v>0.1774232818492699</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>526</v>
@@ -2766,19 +2766,19 @@
         <v>455740</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>420019</v>
+        <v>419946</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>498237</v>
+        <v>495997</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1232801418671455</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1136174083294131</v>
+        <v>0.1135979120404114</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1347760215771942</v>
+        <v>0.1341698966360232</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>948</v>
@@ -2787,19 +2787,19 @@
         <v>1021976</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>954901</v>
+        <v>959770</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1095785</v>
+        <v>1095668</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1423749013394759</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1330303693313288</v>
+        <v>0.1337087542930644</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1526574876983247</v>
+        <v>0.1526412255173794</v>
       </c>
     </row>
     <row r="33">
